--- a/result/result3.xlsx
+++ b/result/result3.xlsx
@@ -1,109 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\泰迪杯\A题-档案数字化加工流程数据分析\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD990968-D2D7-4B9E-93A5-B468F4EB607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>操作人员ID</t>
-  </si>
-  <si>
-    <t>批号</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>案卷号</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>托942849-册一</t>
-  </si>
-  <si>
-    <t>托680150-册一</t>
-  </si>
-  <si>
-    <t>托629494-册一</t>
-  </si>
-  <si>
-    <t>托644031-册一</t>
-  </si>
-  <si>
-    <t>托671101-册一</t>
-  </si>
-  <si>
-    <t>单次领取_单次提交</t>
-  </si>
-  <si>
-    <t>多次领取_单次提交</t>
-  </si>
-  <si>
-    <t>单次领取_多次提交</t>
-  </si>
-  <si>
-    <t>多次领取_多次提交</t>
-  </si>
-  <si>
-    <t>交叉领取提交</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,51 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,145 +420,885 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>iUSER_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>avg_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>median_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p90_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>long_ratio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>case_count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.824084659939455</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.871111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.550278</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08274470232088799</v>
+      </c>
+      <c r="F2" t="n">
+        <v>991</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.225202671827433</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.954722</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.968056</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.09993911455162216</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11497</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.905848711700064</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.02944</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.294489499999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1001939237233355</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3094</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.767430869544365</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.475417</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.422694200000002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8340</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.007700768581315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.652222</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.944833600000019</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1000692041522491</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7225</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.675508834488068</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.108333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.3795552</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1000769822940724</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6879277042138622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.438889</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.6475</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0999968623513539</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31871</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.505822104536082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.1643055</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.8391947</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4850</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.453577768707483</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.784123</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.9834191</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1470</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9050671052631579</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.947388800000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1003671970624235</v>
+      </c>
+      <c r="F11" t="n">
+        <v>817</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.917036918867019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.444356</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.2346428</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.100336053768603</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2083</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.25015244140625</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.655427</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.3661696</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1002604166666667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9111174886934673</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.200278</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.256389</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.09170854271356783</v>
+      </c>
+      <c r="F14" t="n">
+        <v>796</v>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44013.75209490741</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44032.693819444437</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.622887431034483</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6277779999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.4586609</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1000273672687466</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7308</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.784347032180209</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.4256845</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.370278</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1001609010458568</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2486</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.682392579806221</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.012778</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.87955</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.09994900560938297</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1961</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.253035666851749</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.756111</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.2819163</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1002220988339811</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3602</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.669802916201117</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.3675</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.223666400000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1005586592178771</v>
+      </c>
+      <c r="F19" t="n">
+        <v>179</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.775776383497966</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.252037</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.8343287</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.100232423009878</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3442</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.415513542959964</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.945039</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10.0910654</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.100314889788574</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2223</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>69</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.275517717118308</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.521064</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.8379956</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1004626569729015</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1513</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>71</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44013.536736111113</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>68</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44013.387063807873</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44013.349167743057</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="B23" t="n">
+        <v>1.860102492063492</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.6675</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.6156664</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1001821493624772</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3843</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>73</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.640212878945266</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.271111</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.599848</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1000799041150619</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5006</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>74</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.908003038461538</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.5070365</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.1095798</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.100459242250287</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1742</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>75</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.944585807327001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.646986</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.3049717</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.100067842605156</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2948</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>76</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.67307729307611</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.505278</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.223056</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.09989429175475686</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3784</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>78</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.54198367</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.0372775</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.0691218</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>85</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.384194272081218</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.7047135</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.0104279</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>87</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.126525837988827</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.1969445</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.376528</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1005586592178771</v>
+      </c>
+      <c r="F30" t="n">
+        <v>716</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>89</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.098777681272085</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.751389</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.4796392</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2830</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>90</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.126971245614035</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.548691</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.772974</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.100250626566416</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1197</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>91</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.321114485318934</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.179722</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.4576668</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1002362470469119</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2963</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>93</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.619951417012448</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.25116</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.2175265</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1002766251728907</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1446</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>94</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.933860061930783</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.775556</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.7337778</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1001821493624772</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1098</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>95</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.917874129139073</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.654927</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.7134576</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1002408187838651</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3322</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>98</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.335451657369255</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.834444</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.3628334</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1001584786053883</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3155</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>